--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -9,14 +9,14 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -405,8 +405,8 @@
   </sheetPr>
   <dimension ref="A1:F157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
@@ -415,911 +415,628 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="n">
-        <v>44564</v>
-      </c>
+      <c r="A1" s="3" t="n"/>
       <c r="B1" t="n">
-        <v>15725088.88150876</v>
-      </c>
-      <c r="C1" t="n">
-        <v>15596686.67001539</v>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>Predicted +/- Error represents the 90% C.I.</t>
-        </is>
-      </c>
+        <v>325898.9469582039</v>
+      </c>
+      <c r="F1" s="2" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
-        <v>44571</v>
-      </c>
-      <c r="B2" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C2" t="n">
-        <v>15658165.45677317</v>
-      </c>
-      <c r="D2" t="n">
-        <v>49951.23542462778</v>
+      <c r="A2" s="3" t="n"/>
+      <c r="B2" s="1" t="n">
+        <v>538652.354496106</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
-        <v>44578</v>
-      </c>
-      <c r="B3" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C3" t="n">
-        <v>15657969.70998933</v>
-      </c>
-      <c r="D3" t="n">
-        <v>50022.96729867114</v>
+      <c r="A3" s="3" t="n"/>
+      <c r="B3" s="1" t="n">
+        <v>528439.4065450777</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
-        <v>44585</v>
-      </c>
-      <c r="B4" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C4" t="n">
-        <v>15673636.5789826</v>
-      </c>
-      <c r="D4" t="n">
-        <v>48932.14601377602</v>
+      <c r="A4" s="3" t="n"/>
+      <c r="B4" s="1" t="n">
+        <v>540879.9787783563</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
-        <v>44592</v>
-      </c>
-      <c r="B5" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C5" t="n">
-        <v>15672810.85465323</v>
-      </c>
-      <c r="D5" t="n">
-        <v>49973.25789480936</v>
+      <c r="A5" s="3" t="n"/>
+      <c r="B5" s="1" t="n">
+        <v>537539.2247093082</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44599</v>
-      </c>
-      <c r="B6" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C6" t="n">
-        <v>15667512.44131221</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50704.88559399208</v>
+      <c r="A6" s="3" t="n"/>
+      <c r="B6" s="1" t="n">
+        <v>520894.152118123</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>44606</v>
-      </c>
-      <c r="B7" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15648265.92881415</v>
-      </c>
-      <c r="D7" t="n">
-        <v>49851.79579127533</v>
+      <c r="A7" s="3" t="n"/>
+      <c r="B7" s="1" t="n">
+        <v>547096.7342128551</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>44613</v>
-      </c>
-      <c r="B8" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C8" t="n">
-        <v>15717906.28712305</v>
-      </c>
-      <c r="D8" t="n">
-        <v>50471.08618981915</v>
+      <c r="A8" s="3" t="n"/>
+      <c r="B8" s="1" t="n">
+        <v>443114.6542096583</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>44620</v>
-      </c>
-      <c r="B9" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C9" t="n">
-        <v>15725845.46221209</v>
-      </c>
-      <c r="D9" t="n">
-        <v>51015.04290701781</v>
+      <c r="A9" s="3" t="n"/>
+      <c r="B9" s="1" t="n">
+        <v>540399.1351516352</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>44627</v>
-      </c>
-      <c r="B10" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C10" t="n">
-        <v>15737704.27879102</v>
-      </c>
-      <c r="D10" t="n">
-        <v>50894.60853932024</v>
+      <c r="A10" s="3" t="n"/>
+      <c r="B10" s="1" t="n">
+        <v>543022.3550899163</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>44634</v>
-      </c>
-      <c r="B11" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C11" t="n">
-        <v>15763642.45078272</v>
-      </c>
-      <c r="D11" t="n">
-        <v>51165.91301730217</v>
+      <c r="A11" s="3" t="n"/>
+      <c r="B11" s="1" t="n">
+        <v>551984.4945628818</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n">
-        <v>44641</v>
-      </c>
-      <c r="B12" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C12" t="n">
-        <v>15771730.41798755</v>
-      </c>
-      <c r="D12" t="n">
-        <v>51355.54851035564</v>
+      <c r="A12" s="3" t="n"/>
+      <c r="B12" s="1" t="n">
+        <v>539522.6711018853</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n">
-        <v>44648</v>
-      </c>
-      <c r="B13" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" t="n">
-        <v>15773559.58846995</v>
-      </c>
-      <c r="D13" t="n">
-        <v>51149.68238119641</v>
+      <c r="A13" s="3" t="n"/>
+      <c r="B13" s="1" t="n">
+        <v>546723.084819502</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n">
-        <v>44655</v>
-      </c>
-      <c r="B14" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C14" t="n">
-        <v>15772249.97806091</v>
-      </c>
-      <c r="D14" t="n">
-        <v>52067.64499794779</v>
+      <c r="A14" s="3" t="n"/>
+      <c r="B14" s="1" t="n">
+        <v>542255.3822779331</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n">
-        <v>44662</v>
-      </c>
-      <c r="B15" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C15" t="n">
-        <v>15783880.44457161</v>
-      </c>
-      <c r="D15" t="n">
-        <v>53521.24599421449</v>
+      <c r="A15" s="3" t="n"/>
+      <c r="B15" s="1" t="n">
+        <v>526994.2808301538</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n">
-        <v>44669</v>
-      </c>
-      <c r="B16" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C16" t="n">
-        <v>15753724.39722595</v>
-      </c>
-      <c r="D16" t="n">
-        <v>53262.31869995641</v>
+      <c r="A16" s="3" t="n"/>
+      <c r="B16" s="1" t="n">
+        <v>427633.8542213386</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n">
-        <v>44676</v>
-      </c>
-      <c r="B17" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" t="n">
-        <v>15761882.93642055</v>
-      </c>
-      <c r="D17" t="n">
-        <v>52825.4687731039</v>
+      <c r="A17" s="3" t="n"/>
+      <c r="B17" s="1" t="n">
+        <v>433295.3473282141</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n">
-        <v>44683</v>
-      </c>
-      <c r="B18" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C18" t="n">
-        <v>15776663.09496699</v>
-      </c>
-      <c r="D18" t="n">
-        <v>52856.0546508368</v>
+      <c r="A18" s="3" t="n"/>
+      <c r="B18" s="1" t="n">
+        <v>527030.7580849656</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n">
-        <v>44690</v>
-      </c>
-      <c r="B19" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C19" t="n">
-        <v>15788870.42737697</v>
-      </c>
-      <c r="D19" t="n">
-        <v>53018.03529580339</v>
+      <c r="A19" s="3" t="n"/>
+      <c r="B19" s="1" t="n">
+        <v>525591.4342469582</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n">
-        <v>44697</v>
-      </c>
-      <c r="B20" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C20" t="n">
-        <v>15776505.93211426</v>
-      </c>
-      <c r="D20" t="n">
-        <v>53461.01331332501</v>
+      <c r="A20" s="3" t="n"/>
+      <c r="B20" s="1" t="n">
+        <v>504142.1594819156</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n">
-        <v>44704</v>
-      </c>
-      <c r="B21" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C21" t="n">
-        <v>15817252.7241946</v>
-      </c>
-      <c r="D21" t="n">
-        <v>53778.89387561742</v>
+      <c r="A21" s="3" t="n"/>
+      <c r="B21" s="1" t="n">
+        <v>432017.0316275791</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n">
-        <v>44711</v>
-      </c>
-      <c r="B22" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C22" t="n">
-        <v>15816393.49557637</v>
-      </c>
-      <c r="D22" t="n">
-        <v>52527.21692983847</v>
+      <c r="A22" s="3" t="n"/>
+      <c r="B22" s="1" t="n">
+        <v>525202.1966262471</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n">
-        <v>44718</v>
-      </c>
-      <c r="B23" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C23" t="n">
-        <v>15832717.41133827</v>
-      </c>
-      <c r="D23" t="n">
-        <v>55182.6781357539</v>
+      <c r="A23" s="3" t="n"/>
+      <c r="B23" s="1" t="n">
+        <v>524688.4836690996</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n">
-        <v>44725</v>
-      </c>
-      <c r="B24" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C24" t="n">
-        <v>15844583.46910008</v>
-      </c>
-      <c r="D24" t="n">
-        <v>52868.2029288676</v>
+      <c r="A24" s="3" t="n"/>
+      <c r="B24" s="1" t="n">
+        <v>532584.4830091303</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n">
-        <v>44732</v>
-      </c>
-      <c r="B25" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C25" t="n">
-        <v>15845410.7225973</v>
-      </c>
-      <c r="D25" t="n">
-        <v>53938.8714240655</v>
+      <c r="A25" s="3" t="n"/>
+      <c r="B25" s="1" t="n">
+        <v>522416.1623209339</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n">
-        <v>44739</v>
-      </c>
-      <c r="B26" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C26" t="n">
-        <v>15858125.27931965</v>
-      </c>
-      <c r="D26" t="n">
-        <v>53937.71791291639</v>
+      <c r="A26" s="3" t="n"/>
+      <c r="B26" s="1" t="n">
+        <v>523522.8942320797</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n">
-        <v>44746</v>
-      </c>
-      <c r="B27" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C27" t="n">
-        <v>15862290.642301</v>
-      </c>
-      <c r="D27" t="n">
-        <v>54168.25359586335</v>
+      <c r="A27" s="3" t="n"/>
+      <c r="B27" s="1" t="n">
+        <v>421723.3097534885</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n">
-        <v>44753</v>
-      </c>
-      <c r="B28" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C28" t="n">
-        <v>15828552.13948179</v>
-      </c>
-      <c r="D28" t="n">
-        <v>55431.9929990134</v>
+      <c r="A28" s="3" t="n"/>
+      <c r="B28" s="1" t="n">
+        <v>453732.9072129457</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n">
-        <v>44760</v>
-      </c>
-      <c r="B29" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C29" t="n">
-        <v>15847718.88973934</v>
-      </c>
-      <c r="D29" t="n">
-        <v>53660.80287742591</v>
+      <c r="A29" s="3" t="n"/>
+      <c r="B29" s="1" t="n">
+        <v>456049.8244959057</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n">
-        <v>44767</v>
-      </c>
-      <c r="B30" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C30" t="n">
-        <v>15847025.64634006</v>
-      </c>
-      <c r="D30" t="n">
-        <v>54708.7576667699</v>
+      <c r="A30" s="3" t="n"/>
+      <c r="B30" s="1" t="n">
+        <v>447199.9596052411</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n">
-        <v>44774</v>
-      </c>
-      <c r="B31" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C31" t="n">
-        <v>15865658.21369042</v>
-      </c>
-      <c r="D31" t="n">
-        <v>54980.94610714453</v>
+      <c r="A31" s="3" t="n"/>
+      <c r="B31" s="1" t="n">
+        <v>454410.5835449864</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n">
-        <v>44781</v>
-      </c>
-      <c r="B32" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C32" t="n">
-        <v>15875186.01838001</v>
-      </c>
-      <c r="D32" t="n">
-        <v>55027.00648318924</v>
+      <c r="A32" s="3" t="n"/>
+      <c r="B32" s="1" t="n">
+        <v>364091.1749304847</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n">
-        <v>44788</v>
-      </c>
-      <c r="B33" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C33" t="n">
-        <v>15872987.85230124</v>
-      </c>
-      <c r="D33" t="n">
-        <v>55308.2786533935</v>
+      <c r="A33" s="3" t="n"/>
+      <c r="B33" s="1" t="n">
+        <v>452384.2541368475</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n">
-        <v>44795</v>
-      </c>
-      <c r="B34" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C34" t="n">
-        <v>15896131.95251081</v>
-      </c>
-      <c r="D34" t="n">
-        <v>56048.82773012359</v>
+      <c r="A34" s="3" t="n"/>
+      <c r="B34" s="1" t="n">
+        <v>453310.3929127015</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n">
-        <v>44802</v>
-      </c>
-      <c r="B35" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C35" t="n">
-        <v>15893252.73036781</v>
-      </c>
-      <c r="D35" t="n">
-        <v>55508.57980007905</v>
+      <c r="A35" s="3" t="n"/>
+      <c r="B35" s="1" t="n">
+        <v>454604.7722660254</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n">
-        <v>44809</v>
-      </c>
-      <c r="B36" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C36" t="n">
-        <v>15985426.84573934</v>
-      </c>
-      <c r="D36" t="n">
-        <v>56309.61667930632</v>
+      <c r="A36" s="3" t="n"/>
+      <c r="B36" s="1" t="n">
+        <v>463165.9805008785</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n">
-        <v>44816</v>
-      </c>
-      <c r="B37" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C37" t="n">
-        <v>16015271.34003531</v>
-      </c>
-      <c r="D37" t="n">
-        <v>56720.922030146</v>
+      <c r="A37" s="3" t="n"/>
+      <c r="B37" s="1" t="n">
+        <v>569346.9174062791</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n">
-        <v>44823</v>
-      </c>
-      <c r="B38" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C38" t="n">
-        <v>16024651.34865989</v>
-      </c>
-      <c r="D38" t="n">
-        <v>57169.28071494499</v>
+      <c r="A38" s="3" t="n"/>
+      <c r="B38" s="1" t="n">
+        <v>575729.5869041822</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n">
-        <v>44830</v>
-      </c>
-      <c r="B39" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C39" t="n">
-        <v>16030699.68762528</v>
-      </c>
-      <c r="D39" t="n">
-        <v>55664.49459956877</v>
+      <c r="A39" s="3" t="n"/>
+      <c r="B39" s="1" t="n">
+        <v>581544.1074524925</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n">
-        <v>44837</v>
-      </c>
-      <c r="B40" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C40" t="n">
-        <v>16031631.87375168</v>
-      </c>
-      <c r="D40" t="n">
-        <v>58977.07452695532</v>
+      <c r="A40" s="3" t="n"/>
+      <c r="B40" s="1" t="n">
+        <v>572314.9901490173</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n">
-        <v>44844</v>
-      </c>
-      <c r="B41" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C41" t="n">
-        <v>16040353.26358837</v>
-      </c>
-      <c r="D41" t="n">
-        <v>56712.12134508707</v>
+      <c r="A41" s="3" t="n"/>
+      <c r="B41" s="1" t="n">
+        <v>569272.2771280842</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n">
-        <v>44851</v>
-      </c>
-      <c r="B42" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C42" t="n">
-        <v>16035996.53750288</v>
-      </c>
-      <c r="D42" t="n">
-        <v>56304.41776142537</v>
+      <c r="A42" s="3" t="n"/>
+      <c r="B42" s="1" t="n">
+        <v>462949.1367054051</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n">
-        <v>44858</v>
-      </c>
-      <c r="B43" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C43" t="n">
-        <v>16060993.13372626</v>
-      </c>
-      <c r="D43" t="n">
-        <v>56749.82413319784</v>
+      <c r="A43" s="3" t="n"/>
+      <c r="B43" s="1" t="n">
+        <v>582348.0446003609</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n">
-        <v>44865</v>
-      </c>
-      <c r="B44" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C44" t="n">
-        <v>16085643.51915867</v>
-      </c>
-      <c r="D44" t="n">
-        <v>56431.27376096899</v>
+      <c r="A44" s="3" t="n"/>
+      <c r="B44" s="1" t="n">
+        <v>576813.5947012444</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n">
-        <v>44872</v>
-      </c>
-      <c r="B45" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C45" t="n">
-        <v>16072337.64786242</v>
-      </c>
-      <c r="D45" t="n">
-        <v>58586.98866213992</v>
+      <c r="A45" s="3" t="n"/>
+      <c r="B45" s="1" t="n">
+        <v>558849.0081039198</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n">
-        <v>44879</v>
-      </c>
-      <c r="B46" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C46" t="n">
-        <v>16084213.78638398</v>
-      </c>
-      <c r="D46" t="n">
-        <v>57600.53779757395</v>
+      <c r="A46" s="3" t="n"/>
+      <c r="B46" s="1" t="n">
+        <v>470724.7026029836</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n">
-        <v>44886</v>
-      </c>
-      <c r="B47" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C47" t="n">
-        <v>16095726.29866019</v>
-      </c>
-      <c r="D47" t="n">
-        <v>57560.72987388651</v>
+      <c r="A47" s="3" t="n"/>
+      <c r="B47" s="1" t="n">
+        <v>554067.5202706085</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n">
-        <v>44893</v>
-      </c>
-      <c r="B48" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C48" t="n">
-        <v>16112108.64438845</v>
-      </c>
-      <c r="D48" t="n">
-        <v>57279.21693047712</v>
+      <c r="A48" s="3" t="n"/>
+      <c r="B48" s="1" t="n">
+        <v>550590.0737361442</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n">
-        <v>44900</v>
-      </c>
-      <c r="B49" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C49" t="n">
-        <v>16121317.66266337</v>
-      </c>
-      <c r="D49" t="n">
-        <v>57645.65089190117</v>
+      <c r="A49" s="3" t="n"/>
+      <c r="B49" s="1" t="n">
+        <v>555070.5422531057</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n">
-        <v>44907</v>
-      </c>
-      <c r="B50" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C50" t="n">
-        <v>16129684.18398849</v>
-      </c>
-      <c r="D50" t="n">
-        <v>55890.24530791218</v>
+      <c r="A50" s="3" t="n"/>
+      <c r="B50" s="1" t="n">
+        <v>549387.9919995309</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n">
-        <v>44914</v>
-      </c>
-      <c r="B51" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C51" t="n">
-        <v>16139507.38618856</v>
-      </c>
-      <c r="D51" t="n">
-        <v>57031.72766151762</v>
+      <c r="A51" s="3" t="n"/>
+      <c r="B51" s="1" t="n">
+        <v>555946.8313968218</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n">
-        <v>44921</v>
-      </c>
-      <c r="B52" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C52" t="n">
-        <v>16050237.98466653</v>
-      </c>
-      <c r="D52" t="n">
-        <v>57532.02355915215</v>
+      <c r="A52" s="3" t="n"/>
+      <c r="B52" s="1" t="n">
+        <v>348830.7333335041</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>52</v>
-      </c>
       <c r="B53" s="1" t="n">
-        <v>44921</v>
-      </c>
-      <c r="C53" t="n">
-        <v>400616.3241062328</v>
-      </c>
-      <c r="D53" t="n">
-        <v>58808.58572566137</v>
+        <v>345117.6255213796</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n"/>
+      <c r="B54" t="n">
+        <v>565699.7488028952</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n"/>
+      <c r="B55" t="n">
+        <v>544798.3932481301</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n"/>
+      <c r="B56" t="n">
+        <v>521499.1191577273</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n"/>
+      <c r="B57" t="n">
+        <v>554313.3567907193</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n"/>
+      <c r="B58" t="n">
+        <v>573590.5011407332</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n"/>
+      <c r="B59" t="n">
+        <v>581878.2605110828</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n"/>
+      <c r="B60" t="n">
+        <v>476539.2273598784</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n"/>
+      <c r="B61" t="n">
+        <v>578481.9945002837</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n"/>
+      <c r="B62" t="n">
+        <v>584922.5262771246</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n"/>
+      <c r="B63" t="n">
+        <v>588186.8228066463</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n"/>
+      <c r="B64" t="n">
+        <v>571773.7792534161</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n"/>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
+      <c r="B65" t="n">
+        <v>577666.5164345321</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n"/>
+      <c r="B66" t="n">
+        <v>586367.5877788867</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n"/>
+      <c r="B67" t="n">
+        <v>568852.2714640356</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n"/>
+      <c r="B68" t="n">
+        <v>453337.2530715755</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n"/>
+      <c r="B69" t="n">
+        <v>464420.64394224</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n"/>
+      <c r="B70" t="n">
+        <v>560880.1890486266</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n"/>
+      <c r="B71" t="n">
+        <v>551880.2773899129</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n"/>
+      <c r="B72" t="n">
+        <v>547411.3340334787</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n"/>
+      <c r="B73" t="n">
+        <v>461465.0522365686</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n"/>
+      <c r="B74" t="n">
+        <v>557926.7612173423</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n"/>
+      <c r="B75" t="n">
+        <v>548076.9337472846</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n"/>
+      <c r="B76" t="n">
+        <v>563363.9152052058</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n"/>
+      <c r="B77" t="n">
+        <v>558161.1021051091</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n"/>
+      <c r="B78" t="n">
+        <v>557479.3559756634</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n"/>
+      <c r="B79" t="n">
+        <v>453964.3182918183</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n"/>
+      <c r="B80" t="n">
+        <v>485758.7727716852</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n"/>
+      <c r="B81" t="n">
+        <v>486858.3951965772</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n"/>
+      <c r="B82" t="n">
+        <v>481068.8434725927</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n"/>
+      <c r="B83" t="n">
+        <v>481567.70648029</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n"/>
+      <c r="B84" t="n">
+        <v>393848.4076286942</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n"/>
+      <c r="B85" t="n">
+        <v>482078.9217228944</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n"/>
+      <c r="B86" t="n">
+        <v>482713.9071056603</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n"/>
+      <c r="B87" t="n">
+        <v>483748.2856597813</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n"/>
+      <c r="B88" t="n">
+        <v>509987.5579643391</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n"/>
+      <c r="B89" t="n">
+        <v>602466.0423734074</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n"/>
+      <c r="B90" t="n">
+        <v>587762.1260995708</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n"/>
+      <c r="B91" t="n">
+        <v>613301.2002817317</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n"/>
+      <c r="B92" t="n">
+        <v>590036.6725109568</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n"/>
+      <c r="B93" t="n">
+        <v>587836.8504609015</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n"/>
+      <c r="B94" t="n">
+        <v>497538.4442796874</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n"/>
+      <c r="B95" t="n">
+        <v>606887.6965778029</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n"/>
+      <c r="B96" t="n">
+        <v>590537.4829847559</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n"/>
+      <c r="B97" t="n">
+        <v>582653.6398416293</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n"/>
+      <c r="B98" t="n">
+        <v>481998.9802894802</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n"/>
+      <c r="B99" t="n">
+        <v>577536.6137183827</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n"/>
+      <c r="B100" t="n">
+        <v>575037.0647918991</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n"/>
+      <c r="B101" t="n">
+        <v>573578.4991942506</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n"/>
+      <c r="B102" t="n">
+        <v>561364.7398905071</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n"/>
+      <c r="B103" t="n">
+        <v>543994.9264226631</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n"/>
+      <c r="B104" t="n">
+        <v>377880.8240918531</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n"/>

--- a/predictions.xlsx
+++ b/predictions.xlsx
@@ -16,20 +16,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -55,10 +47,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
@@ -403,802 +394,1457 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F157"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4"/>
-  <cols>
-    <col width="10.33203125" bestFit="1" customWidth="1" min="1" max="2"/>
-  </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="n"/>
+      <c r="A1" s="2" t="n">
+        <v>44564</v>
+      </c>
       <c r="B1" t="n">
-        <v>325898.9469582039</v>
-      </c>
-      <c r="F1" s="2" t="n"/>
+        <v>285577.2602258028</v>
+      </c>
+      <c r="C1" t="n">
+        <v>242490.908102386</v>
+      </c>
+      <c r="D1" t="n">
+        <v>329362.7416687622</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n"/>
-      <c r="B2" s="1" t="n">
-        <v>538652.354496106</v>
+      <c r="A2" s="2" t="n">
+        <v>44571</v>
+      </c>
+      <c r="B2" t="n">
+        <v>547271.5652910996</v>
+      </c>
+      <c r="C2" t="n">
+        <v>502919.871117769</v>
+      </c>
+      <c r="D2" t="n">
+        <v>591210.5390922874</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n"/>
-      <c r="B3" s="1" t="n">
-        <v>528439.4065450777</v>
+      <c r="A3" s="2" t="n">
+        <v>44578</v>
+      </c>
+      <c r="B3" t="n">
+        <v>538870.0302137866</v>
+      </c>
+      <c r="C3" t="n">
+        <v>494340.8809829429</v>
+      </c>
+      <c r="D3" t="n">
+        <v>583247.0814045565</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n"/>
-      <c r="B4" s="1" t="n">
-        <v>540879.9787783563</v>
+      <c r="A4" s="2" t="n">
+        <v>44585</v>
+      </c>
+      <c r="B4" t="n">
+        <v>546712.4082959945</v>
+      </c>
+      <c r="C4" t="n">
+        <v>503223.9053333271</v>
+      </c>
+      <c r="D4" t="n">
+        <v>589666.1048712893</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n"/>
-      <c r="B5" s="1" t="n">
-        <v>537539.2247093082</v>
+      <c r="A5" s="2" t="n">
+        <v>44592</v>
+      </c>
+      <c r="B5" t="n">
+        <v>529452.954893444</v>
+      </c>
+      <c r="C5" t="n">
+        <v>485441.4655265663</v>
+      </c>
+      <c r="D5" t="n">
+        <v>574750.9492931706</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n"/>
-      <c r="B6" s="1" t="n">
-        <v>520894.152118123</v>
+      <c r="A6" s="2" t="n">
+        <v>44599</v>
+      </c>
+      <c r="B6" t="n">
+        <v>522441.0971005738</v>
+      </c>
+      <c r="C6" t="n">
+        <v>477183.0942105057</v>
+      </c>
+      <c r="D6" t="n">
+        <v>567175.2966355868</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n"/>
-      <c r="B7" s="1" t="n">
-        <v>547096.7342128551</v>
+      <c r="A7" s="2" t="n">
+        <v>44606</v>
+      </c>
+      <c r="B7" t="n">
+        <v>524747.9058136691</v>
+      </c>
+      <c r="C7" t="n">
+        <v>480114.271260859</v>
+      </c>
+      <c r="D7" t="n">
+        <v>568989.0674566377</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n"/>
-      <c r="B8" s="1" t="n">
-        <v>443114.6542096583</v>
+      <c r="A8" s="2" t="n">
+        <v>44613</v>
+      </c>
+      <c r="B8" t="n">
+        <v>453339.4143156236</v>
+      </c>
+      <c r="C8" t="n">
+        <v>408955.2696773176</v>
+      </c>
+      <c r="D8" t="n">
+        <v>496138.1180313799</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n"/>
-      <c r="B9" s="1" t="n">
-        <v>540399.1351516352</v>
+      <c r="A9" s="2" t="n">
+        <v>44620</v>
+      </c>
+      <c r="B9" t="n">
+        <v>541034.4150225691</v>
+      </c>
+      <c r="C9" t="n">
+        <v>494201.2634295535</v>
+      </c>
+      <c r="D9" t="n">
+        <v>586540.1390238958</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="n"/>
-      <c r="B10" s="1" t="n">
-        <v>543022.3550899163</v>
+      <c r="A10" s="2" t="n">
+        <v>44627</v>
+      </c>
+      <c r="B10" t="n">
+        <v>552691.9387109076</v>
+      </c>
+      <c r="C10" t="n">
+        <v>507697.3394190668</v>
+      </c>
+      <c r="D10" t="n">
+        <v>598682.4807389528</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="n"/>
-      <c r="B11" s="1" t="n">
-        <v>551984.4945628818</v>
+      <c r="A11" s="2" t="n">
+        <v>44634</v>
+      </c>
+      <c r="B11" t="n">
+        <v>568980.3848028651</v>
+      </c>
+      <c r="C11" t="n">
+        <v>522760.3037642367</v>
+      </c>
+      <c r="D11" t="n">
+        <v>613098.7729626996</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="n"/>
-      <c r="B12" s="1" t="n">
-        <v>539522.6711018853</v>
+      <c r="A12" s="2" t="n">
+        <v>44641</v>
+      </c>
+      <c r="B12" t="n">
+        <v>508428.8816130527</v>
+      </c>
+      <c r="C12" t="n">
+        <v>463201.3545098819</v>
+      </c>
+      <c r="D12" t="n">
+        <v>554088.8304485001</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="3" t="n"/>
-      <c r="B13" s="1" t="n">
-        <v>546723.084819502</v>
+      <c r="A13" s="2" t="n">
+        <v>44648</v>
+      </c>
+      <c r="B13" t="n">
+        <v>517817.359228147</v>
+      </c>
+      <c r="C13" t="n">
+        <v>472446.7442780433</v>
+      </c>
+      <c r="D13" t="n">
+        <v>564983.3915943846</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="3" t="n"/>
-      <c r="B14" s="1" t="n">
-        <v>542255.3822779331</v>
+      <c r="A14" s="2" t="n">
+        <v>44655</v>
+      </c>
+      <c r="B14" t="n">
+        <v>557590.8467245455</v>
+      </c>
+      <c r="C14" t="n">
+        <v>512781.3034302932</v>
+      </c>
+      <c r="D14" t="n">
+        <v>603330.3490310677</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="3" t="n"/>
-      <c r="B15" s="1" t="n">
-        <v>526994.2808301538</v>
+      <c r="A15" s="2" t="n">
+        <v>44662</v>
+      </c>
+      <c r="B15" t="n">
+        <v>545597.7267410335</v>
+      </c>
+      <c r="C15" t="n">
+        <v>499377.5339231219</v>
+      </c>
+      <c r="D15" t="n">
+        <v>591294.0354517498</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="3" t="n"/>
-      <c r="B16" s="1" t="n">
-        <v>427633.8542213386</v>
+      <c r="A16" s="2" t="n">
+        <v>44669</v>
+      </c>
+      <c r="B16" t="n">
+        <v>429687.6157207559</v>
+      </c>
+      <c r="C16" t="n">
+        <v>383600.9528789934</v>
+      </c>
+      <c r="D16" t="n">
+        <v>476777.4063972297</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="3" t="n"/>
-      <c r="B17" s="1" t="n">
-        <v>433295.3473282141</v>
+      <c r="A17" s="2" t="n">
+        <v>44676</v>
+      </c>
+      <c r="B17" t="n">
+        <v>438576.065660685</v>
+      </c>
+      <c r="C17" t="n">
+        <v>393266.5268599921</v>
+      </c>
+      <c r="D17" t="n">
+        <v>484982.1243938556</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="3" t="n"/>
-      <c r="B18" s="1" t="n">
-        <v>527030.7580849656</v>
+      <c r="A18" s="2" t="n">
+        <v>44683</v>
+      </c>
+      <c r="B18" t="n">
+        <v>529765.8819228109</v>
+      </c>
+      <c r="C18" t="n">
+        <v>483528.3222076885</v>
+      </c>
+      <c r="D18" t="n">
+        <v>576211.4920797884</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="3" t="n"/>
-      <c r="B19" s="1" t="n">
-        <v>525591.4342469582</v>
+      <c r="A19" s="2" t="n">
+        <v>44690</v>
+      </c>
+      <c r="B19" t="n">
+        <v>525484.7603450833</v>
+      </c>
+      <c r="C19" t="n">
+        <v>477848.1521369436</v>
+      </c>
+      <c r="D19" t="n">
+        <v>572471.8146541459</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="3" t="n"/>
-      <c r="B20" s="1" t="n">
-        <v>504142.1594819156</v>
+      <c r="A20" s="2" t="n">
+        <v>44697</v>
+      </c>
+      <c r="B20" t="n">
+        <v>507664.1990658332</v>
+      </c>
+      <c r="C20" t="n">
+        <v>460179.8047942488</v>
+      </c>
+      <c r="D20" t="n">
+        <v>554335.5630097613</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="3" t="n"/>
-      <c r="B21" s="1" t="n">
-        <v>432017.0316275791</v>
+      <c r="A21" s="2" t="n">
+        <v>44704</v>
+      </c>
+      <c r="B21" t="n">
+        <v>444991.8401014357</v>
+      </c>
+      <c r="C21" t="n">
+        <v>398081.1192445822</v>
+      </c>
+      <c r="D21" t="n">
+        <v>492084.3793031107</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="3" t="n"/>
-      <c r="B22" s="1" t="n">
-        <v>525202.1966262471</v>
+      <c r="A22" s="2" t="n">
+        <v>44711</v>
+      </c>
+      <c r="B22" t="n">
+        <v>525875.0450992179</v>
+      </c>
+      <c r="C22" t="n">
+        <v>478858.1611237587</v>
+      </c>
+      <c r="D22" t="n">
+        <v>574606.5204301099</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="3" t="n"/>
-      <c r="B23" s="1" t="n">
-        <v>524688.4836690996</v>
+      <c r="A23" s="2" t="n">
+        <v>44718</v>
+      </c>
+      <c r="B23" t="n">
+        <v>533258.2439902553</v>
+      </c>
+      <c r="C23" t="n">
+        <v>486673.4603825466</v>
+      </c>
+      <c r="D23" t="n">
+        <v>580239.3579387984</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="3" t="n"/>
-      <c r="B24" s="1" t="n">
-        <v>532584.4830091303</v>
+      <c r="A24" s="2" t="n">
+        <v>44725</v>
+      </c>
+      <c r="B24" t="n">
+        <v>537410.1653194389</v>
+      </c>
+      <c r="C24" t="n">
+        <v>488213.4600878748</v>
+      </c>
+      <c r="D24" t="n">
+        <v>585993.2758274267</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="3" t="n"/>
-      <c r="B25" s="1" t="n">
-        <v>522416.1623209339</v>
+      <c r="A25" s="2" t="n">
+        <v>44732</v>
+      </c>
+      <c r="B25" t="n">
+        <v>528269.6290753979</v>
+      </c>
+      <c r="C25" t="n">
+        <v>480048.3123202976</v>
+      </c>
+      <c r="D25" t="n">
+        <v>576231.4793191764</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="3" t="n"/>
-      <c r="B26" s="1" t="n">
-        <v>523522.8942320797</v>
+      <c r="A26" s="2" t="n">
+        <v>44739</v>
+      </c>
+      <c r="B26" t="n">
+        <v>530970.9193823604</v>
+      </c>
+      <c r="C26" t="n">
+        <v>483766.1973306978</v>
+      </c>
+      <c r="D26" t="n">
+        <v>578913.3301225549</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="3" t="n"/>
-      <c r="B27" s="1" t="n">
-        <v>421723.3097534885</v>
+      <c r="A27" s="2" t="n">
+        <v>44746</v>
+      </c>
+      <c r="B27" t="n">
+        <v>394455.1499551205</v>
+      </c>
+      <c r="C27" t="n">
+        <v>345405.6722056771</v>
+      </c>
+      <c r="D27" t="n">
+        <v>441907.2344199353</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="3" t="n"/>
-      <c r="B28" s="1" t="n">
-        <v>453732.9072129457</v>
+      <c r="A28" s="2" t="n">
+        <v>44753</v>
+      </c>
+      <c r="B28" t="n">
+        <v>455286.7243356286</v>
+      </c>
+      <c r="C28" t="n">
+        <v>407851.3215352531</v>
+      </c>
+      <c r="D28" t="n">
+        <v>503512.5623843892</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="3" t="n"/>
-      <c r="B29" s="1" t="n">
-        <v>456049.8244959057</v>
+      <c r="A29" s="2" t="n">
+        <v>44760</v>
+      </c>
+      <c r="B29" t="n">
+        <v>461429.2429066821</v>
+      </c>
+      <c r="C29" t="n">
+        <v>412989.8308044612</v>
+      </c>
+      <c r="D29" t="n">
+        <v>510671.4937843104</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="3" t="n"/>
-      <c r="B30" s="1" t="n">
-        <v>447199.9596052411</v>
+      <c r="A30" s="2" t="n">
+        <v>44767</v>
+      </c>
+      <c r="B30" t="n">
+        <v>453066.1054990089</v>
+      </c>
+      <c r="C30" t="n">
+        <v>402838.2495388574</v>
+      </c>
+      <c r="D30" t="n">
+        <v>501883.1467606084</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="3" t="n"/>
-      <c r="B31" s="1" t="n">
-        <v>454410.5835449864</v>
+      <c r="A31" s="2" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B31" t="n">
+        <v>458429.912643711</v>
+      </c>
+      <c r="C31" t="n">
+        <v>409515.1557073407</v>
+      </c>
+      <c r="D31" t="n">
+        <v>507330.3124335663</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="3" t="n"/>
-      <c r="B32" s="1" t="n">
-        <v>364091.1749304847</v>
+      <c r="A32" s="2" t="n">
+        <v>44781</v>
+      </c>
+      <c r="B32" t="n">
+        <v>376795.6427337203</v>
+      </c>
+      <c r="C32" t="n">
+        <v>328784.4074128527</v>
+      </c>
+      <c r="D32" t="n">
+        <v>426049.4802825155</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="3" t="n"/>
-      <c r="B33" s="1" t="n">
-        <v>452384.2541368475</v>
+      <c r="A33" s="2" t="n">
+        <v>44788</v>
+      </c>
+      <c r="B33" t="n">
+        <v>452801.7128638209</v>
+      </c>
+      <c r="C33" t="n">
+        <v>403784.4603586748</v>
+      </c>
+      <c r="D33" t="n">
+        <v>502632.9637681613</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="3" t="n"/>
-      <c r="B34" s="1" t="n">
-        <v>453310.3929127015</v>
+      <c r="A34" s="2" t="n">
+        <v>44795</v>
+      </c>
+      <c r="B34" t="n">
+        <v>456769.6114754858</v>
+      </c>
+      <c r="C34" t="n">
+        <v>407696.9525178453</v>
+      </c>
+      <c r="D34" t="n">
+        <v>505920.3761369831</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="3" t="n"/>
-      <c r="B35" s="1" t="n">
-        <v>454604.7722660254</v>
+      <c r="A35" s="2" t="n">
+        <v>44802</v>
+      </c>
+      <c r="B35" t="n">
+        <v>456710.231142182</v>
+      </c>
+      <c r="C35" t="n">
+        <v>408730.3747563119</v>
+      </c>
+      <c r="D35" t="n">
+        <v>505564.2783521131</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="3" t="n"/>
-      <c r="B36" s="1" t="n">
-        <v>463165.9805008785</v>
+      <c r="A36" s="2" t="n">
+        <v>44809</v>
+      </c>
+      <c r="B36" t="n">
+        <v>453045.9090020171</v>
+      </c>
+      <c r="C36" t="n">
+        <v>402373.6813562367</v>
+      </c>
+      <c r="D36" t="n">
+        <v>502233.3631682529</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="3" t="n"/>
-      <c r="B37" s="1" t="n">
-        <v>569346.9174062791</v>
+      <c r="A37" s="2" t="n">
+        <v>44816</v>
+      </c>
+      <c r="B37" t="n">
+        <v>546726.5956572085</v>
+      </c>
+      <c r="C37" t="n">
+        <v>497520.2502545065</v>
+      </c>
+      <c r="D37" t="n">
+        <v>597528.0938286907</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="3" t="n"/>
-      <c r="B38" s="1" t="n">
-        <v>575729.5869041822</v>
+      <c r="A38" s="2" t="n">
+        <v>44823</v>
+      </c>
+      <c r="B38" t="n">
+        <v>551175.1364034903</v>
+      </c>
+      <c r="C38" t="n">
+        <v>503180.529764975</v>
+      </c>
+      <c r="D38" t="n">
+        <v>601193.6706161618</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="3" t="n"/>
-      <c r="B39" s="1" t="n">
-        <v>581544.1074524925</v>
+      <c r="A39" s="2" t="n">
+        <v>44830</v>
+      </c>
+      <c r="B39" t="n">
+        <v>548638.3722830804</v>
+      </c>
+      <c r="C39" t="n">
+        <v>499397.0589689541</v>
+      </c>
+      <c r="D39" t="n">
+        <v>598695.2966596012</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="3" t="n"/>
-      <c r="B40" s="1" t="n">
-        <v>572314.9901490173</v>
+      <c r="A40" s="2" t="n">
+        <v>44837</v>
+      </c>
+      <c r="B40" t="n">
+        <v>537863.9503391584</v>
+      </c>
+      <c r="C40" t="n">
+        <v>488742.9974469131</v>
+      </c>
+      <c r="D40" t="n">
+        <v>589119.1932324376</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="3" t="n"/>
-      <c r="B41" s="1" t="n">
-        <v>569272.2771280842</v>
+      <c r="A41" s="2" t="n">
+        <v>44844</v>
+      </c>
+      <c r="B41" t="n">
+        <v>583486.2967471139</v>
+      </c>
+      <c r="C41" t="n">
+        <v>531384.6398766513</v>
+      </c>
+      <c r="D41" t="n">
+        <v>632629.6035075721</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="3" t="n"/>
-      <c r="B42" s="1" t="n">
-        <v>462949.1367054051</v>
+      <c r="A42" s="2" t="n">
+        <v>44851</v>
+      </c>
+      <c r="B42" t="n">
+        <v>487017.0703600757</v>
+      </c>
+      <c r="C42" t="n">
+        <v>437770.5212579696</v>
+      </c>
+      <c r="D42" t="n">
+        <v>536290.5207106057</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="3" t="n"/>
-      <c r="B43" s="1" t="n">
-        <v>582348.0446003609</v>
+      <c r="A43" s="2" t="n">
+        <v>44858</v>
+      </c>
+      <c r="B43" t="n">
+        <v>587749.254017557</v>
+      </c>
+      <c r="C43" t="n">
+        <v>538402.92446666</v>
+      </c>
+      <c r="D43" t="n">
+        <v>638936.9195140603</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="3" t="n"/>
-      <c r="B44" s="1" t="n">
-        <v>576813.5947012444</v>
+      <c r="A44" s="2" t="n">
+        <v>44865</v>
+      </c>
+      <c r="B44" t="n">
+        <v>588328.2710389831</v>
+      </c>
+      <c r="C44" t="n">
+        <v>537893.7371478362</v>
+      </c>
+      <c r="D44" t="n">
+        <v>639187.7264980804</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="3" t="n"/>
-      <c r="B45" s="1" t="n">
-        <v>558849.0081039198</v>
+      <c r="A45" s="2" t="n">
+        <v>44872</v>
+      </c>
+      <c r="B45" t="n">
+        <v>574335.1727858125</v>
+      </c>
+      <c r="C45" t="n">
+        <v>523413.6866091161</v>
+      </c>
+      <c r="D45" t="n">
+        <v>625456.9515555585</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="3" t="n"/>
-      <c r="B46" s="1" t="n">
-        <v>470724.7026029836</v>
+      <c r="A46" s="2" t="n">
+        <v>44879</v>
+      </c>
+      <c r="B46" t="n">
+        <v>488534.7743432132</v>
+      </c>
+      <c r="C46" t="n">
+        <v>438906.6459343043</v>
+      </c>
+      <c r="D46" t="n">
+        <v>540285.9044859305</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="3" t="n"/>
-      <c r="B47" s="1" t="n">
-        <v>554067.5202706085</v>
+      <c r="A47" s="2" t="n">
+        <v>44886</v>
+      </c>
+      <c r="B47" t="n">
+        <v>555978.6080681712</v>
+      </c>
+      <c r="C47" t="n">
+        <v>506074.5670039853</v>
+      </c>
+      <c r="D47" t="n">
+        <v>606080.10576662</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="3" t="n"/>
-      <c r="B48" s="1" t="n">
-        <v>550590.0737361442</v>
+      <c r="A48" s="2" t="n">
+        <v>44893</v>
+      </c>
+      <c r="B48" t="n">
+        <v>560694.5960802604</v>
+      </c>
+      <c r="C48" t="n">
+        <v>510046.4805878287</v>
+      </c>
+      <c r="D48" t="n">
+        <v>611893.9351879815</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="3" t="n"/>
-      <c r="B49" s="1" t="n">
-        <v>555070.5422531057</v>
+      <c r="A49" s="2" t="n">
+        <v>44900</v>
+      </c>
+      <c r="B49" t="n">
+        <v>562576.0587821974</v>
+      </c>
+      <c r="C49" t="n">
+        <v>511263.7093119483</v>
+      </c>
+      <c r="D49" t="n">
+        <v>615146.9335037661</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="3" t="n"/>
-      <c r="B50" s="1" t="n">
-        <v>549387.9919995309</v>
+      <c r="A50" s="2" t="n">
+        <v>44907</v>
+      </c>
+      <c r="B50" t="n">
+        <v>558650.5172290058</v>
+      </c>
+      <c r="C50" t="n">
+        <v>508473.4249712905</v>
+      </c>
+      <c r="D50" t="n">
+        <v>611078.2645626043</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="3" t="n"/>
-      <c r="B51" s="1" t="n">
-        <v>555946.8313968218</v>
+      <c r="A51" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="B51" t="n">
+        <v>561380.3584185321</v>
+      </c>
+      <c r="C51" t="n">
+        <v>510595.8529876912</v>
+      </c>
+      <c r="D51" t="n">
+        <v>613464.279100935</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="3" t="n"/>
-      <c r="B52" s="1" t="n">
-        <v>348830.7333335041</v>
+      <c r="A52" s="2" t="n">
+        <v>44921</v>
+      </c>
+      <c r="B52" t="n">
+        <v>311430.7278389109</v>
+      </c>
+      <c r="C52" t="n">
+        <v>259756.227499818</v>
+      </c>
+      <c r="D52" t="n">
+        <v>362815.987337361</v>
       </c>
     </row>
     <row r="53">
-      <c r="B53" s="1" t="n">
-        <v>345117.6255213796</v>
+      <c r="A53" s="2" t="n">
+        <v>44928</v>
+      </c>
+      <c r="B53" t="n">
+        <v>301363.6372242499</v>
+      </c>
+      <c r="C53" t="n">
+        <v>249649.8569936968</v>
+      </c>
+      <c r="D53" t="n">
+        <v>353249.3266749484</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="1" t="n"/>
+      <c r="A54" s="2" t="n">
+        <v>44935</v>
+      </c>
       <c r="B54" t="n">
-        <v>565699.7488028952</v>
+        <v>563552.6052500494</v>
+      </c>
+      <c r="C54" t="n">
+        <v>511371.5662615327</v>
+      </c>
+      <c r="D54" t="n">
+        <v>614672.6194613928</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="1" t="n"/>
+      <c r="A55" s="2" t="n">
+        <v>44942</v>
+      </c>
       <c r="B55" t="n">
-        <v>544798.3932481301</v>
+        <v>561164.4968150861</v>
+      </c>
+      <c r="C55" t="n">
+        <v>508406.1723905975</v>
+      </c>
+      <c r="D55" t="n">
+        <v>613596.2354860005</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="1" t="n"/>
+      <c r="A56" s="2" t="n">
+        <v>44949</v>
+      </c>
       <c r="B56" t="n">
-        <v>521499.1191577273</v>
+        <v>538798.7490663701</v>
+      </c>
+      <c r="C56" t="n">
+        <v>486824.8527519828</v>
+      </c>
+      <c r="D56" t="n">
+        <v>589508.462944055</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="1" t="n"/>
+      <c r="A57" s="2" t="n">
+        <v>44956</v>
+      </c>
       <c r="B57" t="n">
-        <v>554313.3567907193</v>
+        <v>560115.8291115119</v>
+      </c>
+      <c r="C57" t="n">
+        <v>508957.1715377115</v>
+      </c>
+      <c r="D57" t="n">
+        <v>612658.0093717522</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="1" t="n"/>
+      <c r="A58" s="2" t="n">
+        <v>44963</v>
+      </c>
       <c r="B58" t="n">
-        <v>573590.5011407332</v>
+        <v>579719.77969141</v>
+      </c>
+      <c r="C58" t="n">
+        <v>527845.7137424315</v>
+      </c>
+      <c r="D58" t="n">
+        <v>631629.1911922563</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="1" t="n"/>
+      <c r="A59" s="2" t="n">
+        <v>44970</v>
+      </c>
       <c r="B59" t="n">
-        <v>581878.2605110828</v>
+        <v>559860.9726454145</v>
+      </c>
+      <c r="C59" t="n">
+        <v>507548.7850326892</v>
+      </c>
+      <c r="D59" t="n">
+        <v>612154.4047444267</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="1" t="n"/>
+      <c r="A60" s="2" t="n">
+        <v>44977</v>
+      </c>
       <c r="B60" t="n">
-        <v>476539.2273598784</v>
+        <v>491772.7696076878</v>
+      </c>
+      <c r="C60" t="n">
+        <v>440952.3328485079</v>
+      </c>
+      <c r="D60" t="n">
+        <v>544916.5539024519</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="1" t="n"/>
+      <c r="A61" s="2" t="n">
+        <v>44984</v>
+      </c>
       <c r="B61" t="n">
-        <v>578481.9945002837</v>
+        <v>583606.242723068</v>
+      </c>
+      <c r="C61" t="n">
+        <v>530611.0973673358</v>
+      </c>
+      <c r="D61" t="n">
+        <v>636685.9724923423</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="1" t="n"/>
+      <c r="A62" s="2" t="n">
+        <v>44991</v>
+      </c>
       <c r="B62" t="n">
-        <v>584922.5262771246</v>
+        <v>585449.5987632329</v>
+      </c>
+      <c r="C62" t="n">
+        <v>532408.7958777358</v>
+      </c>
+      <c r="D62" t="n">
+        <v>637340.983008852</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="1" t="n"/>
+      <c r="A63" s="2" t="n">
+        <v>44998</v>
+      </c>
       <c r="B63" t="n">
-        <v>588186.8228066463</v>
+        <v>592954.1164614238</v>
+      </c>
+      <c r="C63" t="n">
+        <v>540029.4875846975</v>
+      </c>
+      <c r="D63" t="n">
+        <v>645008.9901155434</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="1" t="n"/>
+      <c r="A64" s="2" t="n">
+        <v>45005</v>
+      </c>
       <c r="B64" t="n">
-        <v>571773.7792534161</v>
+        <v>534709.3501392775</v>
+      </c>
+      <c r="C64" t="n">
+        <v>482324.7280078552</v>
+      </c>
+      <c r="D64" t="n">
+        <v>587079.5057163313</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="1" t="n"/>
+      <c r="A65" s="2" t="n">
+        <v>45012</v>
+      </c>
       <c r="B65" t="n">
-        <v>577666.5164345321</v>
+        <v>536846.7456439465</v>
+      </c>
+      <c r="C65" t="n">
+        <v>482242.5652603912</v>
+      </c>
+      <c r="D65" t="n">
+        <v>588810.7789174078</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="1" t="n"/>
+      <c r="A66" s="2" t="n">
+        <v>45019</v>
+      </c>
       <c r="B66" t="n">
-        <v>586367.5877788867</v>
+        <v>596606.4925143278</v>
+      </c>
+      <c r="C66" t="n">
+        <v>543645.5097966699</v>
+      </c>
+      <c r="D66" t="n">
+        <v>651431.0089426194</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="1" t="n"/>
+      <c r="A67" s="2" t="n">
+        <v>45026</v>
+      </c>
       <c r="B67" t="n">
-        <v>568852.2714640356</v>
+        <v>584884.4260179439</v>
+      </c>
+      <c r="C67" t="n">
+        <v>531254.5209189837</v>
+      </c>
+      <c r="D67" t="n">
+        <v>636529.5149050062</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="1" t="n"/>
+      <c r="A68" s="2" t="n">
+        <v>45033</v>
+      </c>
       <c r="B68" t="n">
-        <v>453337.2530715755</v>
+        <v>457016.0478128247</v>
+      </c>
+      <c r="C68" t="n">
+        <v>404931.6827230647</v>
+      </c>
+      <c r="D68" t="n">
+        <v>510068.1101413289</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="1" t="n"/>
+      <c r="A69" s="2" t="n">
+        <v>45040</v>
+      </c>
       <c r="B69" t="n">
-        <v>464420.64394224</v>
+        <v>466639.8283341584</v>
+      </c>
+      <c r="C69" t="n">
+        <v>414216.146308138</v>
+      </c>
+      <c r="D69" t="n">
+        <v>520229.4011559808</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="1" t="n"/>
+      <c r="A70" s="2" t="n">
+        <v>45047</v>
+      </c>
       <c r="B70" t="n">
-        <v>560880.1890486266</v>
+        <v>560264.4540855177</v>
+      </c>
+      <c r="C70" t="n">
+        <v>506427.1065087008</v>
+      </c>
+      <c r="D70" t="n">
+        <v>611982.9857200831</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="1" t="n"/>
+      <c r="A71" s="2" t="n">
+        <v>45054</v>
+      </c>
       <c r="B71" t="n">
-        <v>551880.2773899129</v>
+        <v>550533.9404750906</v>
+      </c>
+      <c r="C71" t="n">
+        <v>496246.6097654689</v>
+      </c>
+      <c r="D71" t="n">
+        <v>603860.6074519998</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="1" t="n"/>
+      <c r="A72" s="2" t="n">
+        <v>45061</v>
+      </c>
       <c r="B72" t="n">
-        <v>547411.3340334787</v>
+        <v>545599.7938059507</v>
+      </c>
+      <c r="C72" t="n">
+        <v>492100.0927513854</v>
+      </c>
+      <c r="D72" t="n">
+        <v>599789.1543801394</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="1" t="n"/>
+      <c r="A73" s="2" t="n">
+        <v>45068</v>
+      </c>
       <c r="B73" t="n">
-        <v>461465.0522365686</v>
+        <v>471619.3731423757</v>
+      </c>
+      <c r="C73" t="n">
+        <v>419468.3575200699</v>
+      </c>
+      <c r="D73" t="n">
+        <v>524600.1168205887</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="1" t="n"/>
+      <c r="A74" s="2" t="n">
+        <v>45075</v>
+      </c>
       <c r="B74" t="n">
-        <v>557926.7612173423</v>
+        <v>554479.8108566731</v>
+      </c>
+      <c r="C74" t="n">
+        <v>501283.5648590328</v>
+      </c>
+      <c r="D74" t="n">
+        <v>608893.6537539468</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="1" t="n"/>
+      <c r="A75" s="2" t="n">
+        <v>45082</v>
+      </c>
       <c r="B75" t="n">
-        <v>548076.9337472846</v>
+        <v>549195.4198948621</v>
+      </c>
+      <c r="C75" t="n">
+        <v>494904.7893752306</v>
+      </c>
+      <c r="D75" t="n">
+        <v>602697.8950489997</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="1" t="n"/>
+      <c r="A76" s="2" t="n">
+        <v>45089</v>
+      </c>
       <c r="B76" t="n">
-        <v>563363.9152052058</v>
+        <v>565557.1813595466</v>
+      </c>
+      <c r="C76" t="n">
+        <v>510806.3763623521</v>
+      </c>
+      <c r="D76" t="n">
+        <v>620990.2404135074</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="1" t="n"/>
+      <c r="A77" s="2" t="n">
+        <v>45096</v>
+      </c>
       <c r="B77" t="n">
-        <v>558161.1021051091</v>
+        <v>563772.1133254579</v>
+      </c>
+      <c r="C77" t="n">
+        <v>509345.4860892636</v>
+      </c>
+      <c r="D77" t="n">
+        <v>617451.7070209619</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="1" t="n"/>
+      <c r="A78" s="2" t="n">
+        <v>45103</v>
+      </c>
       <c r="B78" t="n">
-        <v>557479.3559756634</v>
+        <v>558923.5245490813</v>
+      </c>
+      <c r="C78" t="n">
+        <v>505463.3476755324</v>
+      </c>
+      <c r="D78" t="n">
+        <v>612674.5995440243</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="1" t="n"/>
+      <c r="A79" s="2" t="n">
+        <v>45110</v>
+      </c>
       <c r="B79" t="n">
-        <v>453964.3182918183</v>
+        <v>421043.4339883766</v>
+      </c>
+      <c r="C79" t="n">
+        <v>367470.9820651988</v>
+      </c>
+      <c r="D79" t="n">
+        <v>476079.6171235981</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="1" t="n"/>
+      <c r="A80" s="2" t="n">
+        <v>45117</v>
+      </c>
       <c r="B80" t="n">
-        <v>485758.7727716852</v>
+        <v>485449.871379437</v>
+      </c>
+      <c r="C80" t="n">
+        <v>432058.624645547</v>
+      </c>
+      <c r="D80" t="n">
+        <v>539641.1472232558</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="1" t="n"/>
+      <c r="A81" s="2" t="n">
+        <v>45124</v>
+      </c>
       <c r="B81" t="n">
-        <v>486858.3951965772</v>
+        <v>488728.0127709589</v>
+      </c>
+      <c r="C81" t="n">
+        <v>434970.460063461</v>
+      </c>
+      <c r="D81" t="n">
+        <v>543501.190840045</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="1" t="n"/>
+      <c r="A82" s="2" t="n">
+        <v>45131</v>
+      </c>
       <c r="B82" t="n">
-        <v>481068.8434725927</v>
+        <v>486338.2325362244</v>
+      </c>
+      <c r="C82" t="n">
+        <v>431219.0847879105</v>
+      </c>
+      <c r="D82" t="n">
+        <v>539698.9267315709</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="1" t="n"/>
+      <c r="A83" s="2" t="n">
+        <v>45138</v>
+      </c>
       <c r="B83" t="n">
-        <v>481567.70648029</v>
+        <v>482875.4870346246</v>
+      </c>
+      <c r="C83" t="n">
+        <v>429754.5144842967</v>
+      </c>
+      <c r="D83" t="n">
+        <v>536933.9198819813</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="1" t="n"/>
+      <c r="A84" s="2" t="n">
+        <v>45145</v>
+      </c>
       <c r="B84" t="n">
-        <v>393848.4076286942</v>
+        <v>401609.007901343</v>
+      </c>
+      <c r="C84" t="n">
+        <v>346912.4067246037</v>
+      </c>
+      <c r="D84" t="n">
+        <v>457409.0176778945</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="1" t="n"/>
+      <c r="A85" s="2" t="n">
+        <v>45152</v>
+      </c>
       <c r="B85" t="n">
-        <v>482078.9217228944</v>
+        <v>483140.7739002982</v>
+      </c>
+      <c r="C85" t="n">
+        <v>428955.7261509441</v>
+      </c>
+      <c r="D85" t="n">
+        <v>536671.1458473213</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="1" t="n"/>
+      <c r="A86" s="2" t="n">
+        <v>45159</v>
+      </c>
       <c r="B86" t="n">
-        <v>482713.9071056603</v>
+        <v>478705.8748920279</v>
+      </c>
+      <c r="C86" t="n">
+        <v>423610.9745675945</v>
+      </c>
+      <c r="D86" t="n">
+        <v>532830.1137626248</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="1" t="n"/>
+      <c r="A87" s="2" t="n">
+        <v>45166</v>
+      </c>
       <c r="B87" t="n">
-        <v>483748.2856597813</v>
+        <v>481958.1212333663</v>
+      </c>
+      <c r="C87" t="n">
+        <v>426047.1408308126</v>
+      </c>
+      <c r="D87" t="n">
+        <v>536013.7156934554</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="1" t="n"/>
+      <c r="A88" s="2" t="n">
+        <v>45173</v>
+      </c>
       <c r="B88" t="n">
-        <v>509987.5579643391</v>
+        <v>499334.9255395467</v>
+      </c>
+      <c r="C88" t="n">
+        <v>443676.0006451909</v>
+      </c>
+      <c r="D88" t="n">
+        <v>557608.6950142409</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="1" t="n"/>
+      <c r="A89" s="2" t="n">
+        <v>45180</v>
+      </c>
       <c r="B89" t="n">
-        <v>602466.0423734074</v>
+        <v>580652.6001637172</v>
+      </c>
+      <c r="C89" t="n">
+        <v>526603.271911758</v>
+      </c>
+      <c r="D89" t="n">
+        <v>636684.1610538401</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="1" t="n"/>
+      <c r="A90" s="2" t="n">
+        <v>45187</v>
+      </c>
       <c r="B90" t="n">
-        <v>587762.1260995708</v>
+        <v>563807.3036158986</v>
+      </c>
+      <c r="C90" t="n">
+        <v>510506.2608122767</v>
+      </c>
+      <c r="D90" t="n">
+        <v>617691.6909641507</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="1" t="n"/>
+      <c r="A91" s="2" t="n">
+        <v>45194</v>
+      </c>
       <c r="B91" t="n">
-        <v>613301.2002817317</v>
+        <v>587718.8793922494</v>
+      </c>
+      <c r="C91" t="n">
+        <v>531763.1991022567</v>
+      </c>
+      <c r="D91" t="n">
+        <v>643879.8717774004</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="1" t="n"/>
+      <c r="A92" s="2" t="n">
+        <v>45201</v>
+      </c>
       <c r="B92" t="n">
-        <v>590036.6725109568</v>
+        <v>564259.165195186</v>
+      </c>
+      <c r="C92" t="n">
+        <v>509589.0731363873</v>
+      </c>
+      <c r="D92" t="n">
+        <v>620914.5967563665</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="1" t="n"/>
+      <c r="A93" s="2" t="n">
+        <v>45208</v>
+      </c>
       <c r="B93" t="n">
-        <v>587836.8504609015</v>
+        <v>606181.0699515746</v>
+      </c>
+      <c r="C93" t="n">
+        <v>550223.049196718</v>
+      </c>
+      <c r="D93" t="n">
+        <v>662242.1865023889</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="1" t="n"/>
+      <c r="A94" s="2" t="n">
+        <v>45215</v>
+      </c>
       <c r="B94" t="n">
-        <v>497538.4442796874</v>
+        <v>513175.7379884405</v>
+      </c>
+      <c r="C94" t="n">
+        <v>458238.2591405168</v>
+      </c>
+      <c r="D94" t="n">
+        <v>571745.3472590619</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="1" t="n"/>
+      <c r="A95" s="2" t="n">
+        <v>45222</v>
+      </c>
       <c r="B95" t="n">
-        <v>606887.6965778029</v>
+        <v>614394.8711116564</v>
+      </c>
+      <c r="C95" t="n">
+        <v>560341.8174354034</v>
+      </c>
+      <c r="D95" t="n">
+        <v>668805.2790326178</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="1" t="n"/>
+      <c r="A96" s="2" t="n">
+        <v>45229</v>
+      </c>
       <c r="B96" t="n">
-        <v>590537.4829847559</v>
+        <v>599215.4334619839</v>
+      </c>
+      <c r="C96" t="n">
+        <v>543972.8525324832</v>
+      </c>
+      <c r="D96" t="n">
+        <v>655836.7589815324</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="1" t="n"/>
+      <c r="A97" s="2" t="n">
+        <v>45236</v>
+      </c>
       <c r="B97" t="n">
-        <v>582653.6398416293</v>
+        <v>588416.48329637</v>
+      </c>
+      <c r="C97" t="n">
+        <v>534907.1194895767</v>
+      </c>
+      <c r="D97" t="n">
+        <v>645269.5006876844</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="1" t="n"/>
+      <c r="A98" s="2" t="n">
+        <v>45243</v>
+      </c>
       <c r="B98" t="n">
-        <v>481998.9802894802</v>
+        <v>500137.7083542993</v>
+      </c>
+      <c r="C98" t="n">
+        <v>444168.642148224</v>
+      </c>
+      <c r="D98" t="n">
+        <v>556917.9691075271</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="1" t="n"/>
+      <c r="A99" s="2" t="n">
+        <v>45250</v>
+      </c>
       <c r="B99" t="n">
-        <v>577536.6137183827</v>
+        <v>585250.7477965176</v>
+      </c>
+      <c r="C99" t="n">
+        <v>526121.093725821</v>
+      </c>
+      <c r="D99" t="n">
+        <v>642268.3682414233</v>
       </c>
     </row>
     <row r="100">
-      <c r="A100" s="1" t="n"/>
+      <c r="A100" s="2" t="n">
+        <v>45257</v>
+      </c>
       <c r="B100" t="n">
-        <v>575037.0647918991</v>
+        <v>581610.1690171995</v>
+      </c>
+      <c r="C100" t="n">
+        <v>524553.5731481146</v>
+      </c>
+      <c r="D100" t="n">
+        <v>640742.7863313211</v>
       </c>
     </row>
     <row r="101">
-      <c r="A101" s="1" t="n"/>
+      <c r="A101" s="2" t="n">
+        <v>45264</v>
+      </c>
       <c r="B101" t="n">
-        <v>573578.4991942506</v>
+        <v>581282.0123022326</v>
+      </c>
+      <c r="C101" t="n">
+        <v>523893.6204541189</v>
+      </c>
+      <c r="D101" t="n">
+        <v>637797.3698152381</v>
       </c>
     </row>
     <row r="102">
-      <c r="A102" s="1" t="n"/>
+      <c r="A102" s="2" t="n">
+        <v>45271</v>
+      </c>
       <c r="B102" t="n">
-        <v>561364.7398905071</v>
+        <v>573797.8040075293</v>
+      </c>
+      <c r="C102" t="n">
+        <v>516666.0081594936</v>
+      </c>
+      <c r="D102" t="n">
+        <v>627744.531634033</v>
       </c>
     </row>
     <row r="103">
-      <c r="A103" s="1" t="n"/>
+      <c r="A103" s="2" t="n">
+        <v>45278</v>
+      </c>
       <c r="B103" t="n">
-        <v>543994.9264226631</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n"/>
-      <c r="B104" t="n">
-        <v>377880.8240918531</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n"/>
+        <v>552576.0374479373</v>
+      </c>
+      <c r="C103" t="n">
+        <v>495116.5518730524</v>
+      </c>
+      <c r="D103" t="n">
+        <v>609240.1620315583</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>